--- a/excel/S-势力配置.xlsx
+++ b/excel/S-势力配置.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5EF0B0-7C44-4B1E-93A8-C55D7AB288B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A8B05-B1EB-41AD-A6F8-1C7B58718407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-4620" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>导出类型</t>
   </si>
@@ -73,21 +73,6 @@
     <t>圣堂</t>
   </si>
   <si>
-    <t>亡灵</t>
-  </si>
-  <si>
-    <t>游牧</t>
-  </si>
-  <si>
-    <t>自然</t>
-  </si>
-  <si>
-    <t>堡垒</t>
-  </si>
-  <si>
-    <t>学院</t>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -102,6 +87,61 @@
   <si>
     <t>}</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>势力描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣堂城是人类建立的城市，他们是光明之龙的仆人，精通光系和水系法术，且在上古之战时成功击败了地狱大君和亡灵巫师联合进攻，守卫了城市，并在月圆之夜驯服了部分狂化的野兽，同时在长期战争中人类的杰出发明家也研发了一些战争兵器作为辅助战斗，现在一只联合的军队正在大陆上跃跃欲试的准备扩张自己的帝国</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>堡垒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡灵是人类建立的城市，他们是光明之龙的仆人，精通光系和水系法术，且在上古之战时成功击败了地狱大君和亡灵巫师联合进攻，守卫了城市，并在月圆之夜驯服了部分狂化的野兽，同时在长期战争中人类的杰出发明家也研发了一些战争兵器作为辅助战斗，现在一只联合的军队正在大陆上跃跃欲试的准备扩张自己的帝国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游牧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游牧是人类建立的城市，他们是光明之龙的仆人，精通光系和水系法术，且在上古之战时成功击败了地狱大君和亡灵巫师联合进攻，守卫了城市，并在月圆之夜驯服了部分狂化的野兽，同时在长期战争中人类的杰出发明家也研发了一些战争兵器作为辅助战斗，现在一只联合的军队正在大陆上跃跃欲试的准备扩张自己的帝国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然是人类建立的城市，他们是光明之龙的仆人，精通光系和水系法术，且在上古之战时成功击败了地狱大君和亡灵巫师联合进攻，守卫了城市，并在月圆之夜驯服了部分狂化的野兽，同时在长期战争中人类的杰出发明家也研发了一些战争兵器作为辅助战斗，现在一只联合的军队正在大陆上跃跃欲试的准备扩张自己的帝国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>堡垒是人类建立的城市，他们是光明之龙的仆人，精通光系和水系法术，且在上古之战时成功击败了地狱大君和亡灵巫师联合进攻，守卫了城市，并在月圆之夜驯服了部分狂化的野兽，同时在长期战争中人类的杰出发明家也研发了一些战争兵器作为辅助战斗，现在一只联合的军队正在大陆上跃跃欲试的准备扩张自己的帝国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院是人类建立的城市，他们是光明之龙的仆人，精通光系和水系法术，且在上古之战时成功击败了地狱大君和亡灵巫师联合进攻，守卫了城市，并在月圆之夜驯服了部分狂化的野兽，同时在长期战争中人类的杰出发明家也研发了一些战争兵器作为辅助战斗，现在一只联合的军队正在大陆上跃跃欲试的准备扩张自己的帝国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1119,7 +1159,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1141,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1156,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1180,16 +1220,22 @@
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1202,7 +1248,9 @@
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
@@ -1211,6 +1259,9 @@
       <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
@@ -1219,13 +1270,19 @@
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1233,7 +1290,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1301,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1249,7 +1312,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1257,7 +1323,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1268,10 +1337,10 @@
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 B7:C7 B6">
+  <conditionalFormatting sqref="B7:C7 B6 B5:D5">
     <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 B7:C7 B6">
+  <conditionalFormatting sqref="B7:C7 B6 B5:D5">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
